--- a/Batt_Temp_Day.xlsx
+++ b/Batt_Temp_Day.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
-    <t>Average Battery Temperature for 2023-02-15</t>
+    <t>Average Battery Temperature for 2023-04-11</t>
   </si>
   <si>
     <t>Hour</t>
@@ -487,16 +487,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>28.62833333333333</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>25.58666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -504,16 +504,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>28.145</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>21.18333333333333</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>21.18333333333333</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>25.12166666666667</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -521,16 +521,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>27.73</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>20.81666666666667</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>20.81666666666667</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>24.67833333333333</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -538,16 +538,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>27.41666666666667</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>20.53333333333333</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>20.53333333333333</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>24.25333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -555,16 +555,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>27.29833333333334</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>23.87833333333333</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -572,16 +572,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>27.37333333333333</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>23.88333333333334</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -589,16 +589,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>27.594</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>24.802</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -606,16 +606,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>28.91833333333333</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>31.86666666666667</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>31.86666666666667</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>27.43333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -623,16 +623,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>22.34166666666667</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>26.63333333333334</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>26.63333333333334</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>22.54</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -640,16 +640,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>32.485</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>33.15</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>33.15</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>33.98166666666666</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -657,16 +657,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>33.34833333333334</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>33.7</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>33.7</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>35.04666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -674,16 +674,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>33.93333333333334</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>33.24999999999999</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>33.24999999999999</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>35.17166666666667</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -691,16 +691,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>34.335</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>32.51666666666667</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>32.51666666666667</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>35.12499999999999</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -708,16 +708,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>34.51333333333333</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>32.03333333333333</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>32.03333333333333</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>35.02666666666666</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -725,16 +725,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>34.47333333333334</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>31.9</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>31.9</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>34.995</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -742,16 +742,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>22.87</v>
+        <v>34.06333333333333</v>
       </c>
       <c r="C18">
-        <v>22.4</v>
+        <v>29.4</v>
       </c>
       <c r="D18">
-        <v>22.4</v>
+        <v>29.4</v>
       </c>
       <c r="E18">
-        <v>25.5375</v>
+        <v>34.28166666666667</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -759,16 +759,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>22.82</v>
+        <v>33.47833333333334</v>
       </c>
       <c r="C19">
-        <v>20.6</v>
+        <v>27.01666666666667</v>
       </c>
       <c r="D19">
-        <v>20.6</v>
+        <v>27.01666666666667</v>
       </c>
       <c r="E19">
-        <v>25.24666666666667</v>
+        <v>33.045</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -776,16 +776,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>22.035</v>
+        <v>32.922</v>
       </c>
       <c r="C20">
-        <v>18.4</v>
+        <v>25.84</v>
       </c>
       <c r="D20">
-        <v>18.4</v>
+        <v>25.84</v>
       </c>
       <c r="E20">
-        <v>24.0975</v>
+        <v>31.76799999999999</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -793,16 +793,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>21.33000000000001</v>
+        <v>32.59</v>
       </c>
       <c r="C21">
-        <v>18.58</v>
+        <v>25.35</v>
       </c>
       <c r="D21">
-        <v>18.58</v>
+        <v>25.35</v>
       </c>
       <c r="E21">
-        <v>23.492</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -810,16 +810,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>21.07</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>23.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -827,16 +827,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>20.76</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>22.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -844,16 +844,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>20.5375</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>22.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -861,16 +861,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>20.46</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>19.08</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>19.08</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>22.088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -878,16 +878,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>20.36</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>18.875</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>18.875</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>22.0225</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Batt_Temp_Day.xlsx
+++ b/Batt_Temp_Day.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
-    <t>Average Battery Temperature for 2023-04-11</t>
+    <t>Average Battery Temperature for 2023-04-12</t>
   </si>
   <si>
     <t>Hour</t>
@@ -487,16 +487,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>28.62833333333333</v>
+        <v>29.52166666666666</v>
       </c>
       <c r="C3">
-        <v>21.6</v>
+        <v>23.45</v>
       </c>
       <c r="D3">
-        <v>21.6</v>
+        <v>23.45</v>
       </c>
       <c r="E3">
-        <v>25.58666666666667</v>
+        <v>26.72</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -504,16 +504,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>28.145</v>
+        <v>29.00333333333333</v>
       </c>
       <c r="C4">
-        <v>21.18333333333333</v>
+        <v>20.95</v>
       </c>
       <c r="D4">
-        <v>21.18333333333333</v>
+        <v>20.95</v>
       </c>
       <c r="E4">
-        <v>25.12166666666667</v>
+        <v>26.18166666666667</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -521,16 +521,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>27.73</v>
+        <v>20.09333333333334</v>
       </c>
       <c r="C5">
-        <v>20.81666666666667</v>
+        <v>16.51666666666667</v>
       </c>
       <c r="D5">
-        <v>20.81666666666667</v>
+        <v>16.51666666666667</v>
       </c>
       <c r="E5">
-        <v>24.67833333333333</v>
+        <v>17.51333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -538,16 +538,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>27.41666666666667</v>
+        <v>19.54333333333333</v>
       </c>
       <c r="C6">
-        <v>20.53333333333333</v>
+        <v>16.83333333333333</v>
       </c>
       <c r="D6">
-        <v>20.53333333333333</v>
+        <v>16.83333333333333</v>
       </c>
       <c r="E6">
-        <v>24.25333333333333</v>
+        <v>16.64</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -555,16 +555,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>27.29833333333334</v>
+        <v>27.602</v>
       </c>
       <c r="C7">
-        <v>21.2</v>
+        <v>20.3</v>
       </c>
       <c r="D7">
-        <v>21.2</v>
+        <v>20.3</v>
       </c>
       <c r="E7">
-        <v>23.87833333333333</v>
+        <v>23.512</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -572,16 +572,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>27.37333333333333</v>
+        <v>27.29833333333333</v>
       </c>
       <c r="C8">
-        <v>24.33333333333333</v>
+        <v>21.21666666666667</v>
       </c>
       <c r="D8">
-        <v>24.33333333333333</v>
+        <v>21.21666666666667</v>
       </c>
       <c r="E8">
-        <v>23.88333333333334</v>
+        <v>23.20333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -589,16 +589,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>27.594</v>
+        <v>27.16333333333333</v>
       </c>
       <c r="C9">
-        <v>28.8</v>
+        <v>24.46666666666667</v>
       </c>
       <c r="D9">
-        <v>28.8</v>
+        <v>24.46666666666667</v>
       </c>
       <c r="E9">
-        <v>24.802</v>
+        <v>23.585</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -606,16 +606,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>28.91833333333333</v>
+        <v>27.51666666666667</v>
       </c>
       <c r="C10">
-        <v>31.86666666666667</v>
+        <v>24.25</v>
       </c>
       <c r="D10">
-        <v>31.86666666666667</v>
+        <v>24.25</v>
       </c>
       <c r="E10">
-        <v>27.43333333333333</v>
+        <v>24.78833333333334</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -623,16 +623,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>22.34166666666667</v>
+        <v>27.98833333333333</v>
       </c>
       <c r="C11">
-        <v>26.63333333333334</v>
+        <v>25.83333333333333</v>
       </c>
       <c r="D11">
-        <v>26.63333333333334</v>
+        <v>25.83333333333333</v>
       </c>
       <c r="E11">
-        <v>22.54</v>
+        <v>25.65666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -640,16 +640,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>32.485</v>
+        <v>29.25</v>
       </c>
       <c r="C12">
-        <v>33.15</v>
+        <v>28.81666666666667</v>
       </c>
       <c r="D12">
-        <v>33.15</v>
+        <v>28.81666666666667</v>
       </c>
       <c r="E12">
-        <v>33.98166666666666</v>
+        <v>27.46333333333334</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -657,16 +657,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>33.34833333333334</v>
+        <v>30.80166666666667</v>
       </c>
       <c r="C13">
-        <v>33.7</v>
+        <v>28.6</v>
       </c>
       <c r="D13">
-        <v>33.7</v>
+        <v>28.6</v>
       </c>
       <c r="E13">
-        <v>35.04666666666666</v>
+        <v>30.21166666666666</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -674,16 +674,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>33.93333333333334</v>
+        <v>31.515</v>
       </c>
       <c r="C14">
-        <v>33.24999999999999</v>
+        <v>29.61666666666666</v>
       </c>
       <c r="D14">
-        <v>33.24999999999999</v>
+        <v>29.61666666666666</v>
       </c>
       <c r="E14">
-        <v>35.17166666666667</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -691,16 +691,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>34.335</v>
+        <v>31.93333333333333</v>
       </c>
       <c r="C15">
-        <v>32.51666666666667</v>
+        <v>29.9</v>
       </c>
       <c r="D15">
-        <v>32.51666666666667</v>
+        <v>29.9</v>
       </c>
       <c r="E15">
-        <v>35.12499999999999</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -708,16 +708,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>34.51333333333333</v>
+        <v>32.145</v>
       </c>
       <c r="C16">
-        <v>32.03333333333333</v>
+        <v>29.56666666666667</v>
       </c>
       <c r="D16">
-        <v>32.03333333333333</v>
+        <v>29.56666666666667</v>
       </c>
       <c r="E16">
-        <v>35.02666666666666</v>
+        <v>31.60833333333334</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -725,16 +725,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>34.47333333333334</v>
+        <v>32.124</v>
       </c>
       <c r="C17">
-        <v>31.9</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>31.9</v>
+        <v>28</v>
       </c>
       <c r="E17">
-        <v>34.995</v>
+        <v>31.598</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -742,16 +742,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>34.06333333333333</v>
+        <v>23.04333333333333</v>
       </c>
       <c r="C18">
-        <v>29.4</v>
+        <v>22.3</v>
       </c>
       <c r="D18">
-        <v>29.4</v>
+        <v>22.3</v>
       </c>
       <c r="E18">
-        <v>34.28166666666667</v>
+        <v>22.35666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -759,16 +759,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>33.47833333333334</v>
+        <v>31.21833333333333</v>
       </c>
       <c r="C19">
-        <v>27.01666666666667</v>
+        <v>25.26666666666667</v>
       </c>
       <c r="D19">
-        <v>27.01666666666667</v>
+        <v>25.26666666666667</v>
       </c>
       <c r="E19">
-        <v>33.045</v>
+        <v>29.985</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -776,16 +776,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>32.922</v>
+        <v>30.7575</v>
       </c>
       <c r="C20">
-        <v>25.84</v>
+        <v>24.55</v>
       </c>
       <c r="D20">
-        <v>25.84</v>
+        <v>24.55</v>
       </c>
       <c r="E20">
-        <v>31.76799999999999</v>
+        <v>28.98</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -793,16 +793,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>32.59</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>25.35</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>25.35</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>31.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
